--- a/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.6</t>
   </si>
   <si>
-    <t>「px2-include-php-code」 サイトマップ</t>
-  </si>
-  <si>
-    <t>Exported: 2017-03-30 15:59:03</t>
+    <t>「px2-webapp-fw-2.x」 サイトマップ</t>
+  </si>
+  <si>
+    <t>Exported: 2017-04-09 12:05:30</t>
   </si>
   <si>
     <t>ページID</t>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>PHPで実行するページのテスト</t>
+  </si>
+  <si>
+    <t>/php_page/index.php</t>
+  </si>
+  <si>
+    <t>PHPによるAPIにAJAX通信するページのテスト</t>
+  </si>
+  <si>
+    <t>/php_api-ajax/</t>
   </si>
   <si>
     <t>EndOfData</t>
@@ -218,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border/>
     <border>
       <left style="thin">
@@ -226,6 +238,20 @@
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFdddddd"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -266,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -289,6 +315,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -596,7 +625,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -771,13 +800,13 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="4"/>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -791,35 +820,91 @@
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="12" spans="1:20" customHeight="1" ht="5">
-      <c r="A12" s="9" t="s">
+    <row r="10" spans="1:20">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="14" spans="1:20" customHeight="1" ht="5">
+      <c r="A14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
-  <si>
-    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.6</t>
-  </si>
-  <si>
-    <t>「px2-webapp-fw-2.x」 サイトマップ</t>
-  </si>
-  <si>
-    <t>Exported: 2017-04-09 12:05:30</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+  <si>
+    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.7</t>
+  </si>
+  <si>
+    <t>「Paprika Framework 2」 サイトマップ</t>
+  </si>
+  <si>
+    <t>Exported: 2017-08-04 15:22:22</t>
   </si>
   <si>
     <t>ページID</t>
@@ -71,6 +71,9 @@
     <t>ロール</t>
   </si>
   <si>
+    <t>コンテンツの処理方法</t>
+  </si>
+  <si>
     <t>削除フラグ</t>
   </si>
   <si>
@@ -119,6 +122,9 @@
     <t>role</t>
   </si>
   <si>
+    <t>proc_type</t>
+  </si>
+  <si>
     <t>**delete_flg</t>
   </si>
   <si>
@@ -128,13 +134,13 @@
     <t>/</t>
   </si>
   <si>
-    <t>PHPで実行するページのテスト</t>
+    <t>PHPで実行</t>
   </si>
   <si>
     <t>/php_page/index.php</t>
   </si>
   <si>
-    <t>PHPによるAPIにAJAX通信するページのテスト</t>
+    <t>PHPによるAPIにAJAX通信</t>
   </si>
   <si>
     <t>/php_api-ajax/</t>
@@ -625,7 +631,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -656,7 +662,7 @@
     <col min="18" max="18" width="3" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" customHeight="1" ht="10">
+    <row r="1" spans="1:21" customHeight="1" ht="10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,18 +685,19 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -743,65 +750,71 @@
       <c r="T7" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="U7" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -812,7 +825,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4">
@@ -825,12 +838,13 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -840,7 +854,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4">
@@ -853,12 +867,13 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -868,7 +883,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4">
@@ -881,10 +896,11 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
     </row>
-    <row r="14" spans="1:20" customHeight="1" ht="5">
+    <row r="14" spans="1:21" customHeight="1" ht="5">
       <c r="A14" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -905,6 +921,7 @@
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.7</t>
   </si>
@@ -23,7 +23,7 @@
     <t>「Paprika Framework 2」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2017-08-04 15:22:22</t>
+    <t>Exported: 2017-08-06 19:28:31</t>
   </si>
   <si>
     <t>ページID</t>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>PHPで実行</t>
+  </si>
+  <si>
+    <t>/php_page/index.php{*}</t>
   </si>
   <si>
     <t>/php_page/index.php</t>
@@ -856,7 +859,9 @@
       <c r="K10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="M10" s="4">
         <v>1</v>
       </c>
@@ -873,7 +878,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -883,7 +888,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4">
@@ -900,7 +905,7 @@
     </row>
     <row r="14" spans="1:21" customHeight="1" ht="5">
       <c r="A14" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>

--- a/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
-  <si>
-    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.7</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+  <si>
+    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.8</t>
   </si>
   <si>
     <t>「Paprika Framework 2」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2017-08-06 19:28:31</t>
+    <t>Exported: 2018-06-09 09:09:00</t>
   </si>
   <si>
     <t>ページID</t>
@@ -134,19 +134,46 @@
     <t>/</t>
   </si>
   <si>
-    <t>PHPで実行</t>
-  </si>
-  <si>
-    <t>/php_page/index.php{*}</t>
-  </si>
-  <si>
-    <t>/php_page/index.php</t>
-  </si>
-  <si>
-    <t>PHPによるAPIにAJAX通信</t>
-  </si>
-  <si>
-    <t>/php_api-ajax/</t>
+    <t>基本</t>
+  </si>
+  <si>
+    <t>/basic/</t>
+  </si>
+  <si>
+    <t>1. PHPによるAPIにAJAX通信する</t>
+  </si>
+  <si>
+    <t>/basic/php_api-ajax.html</t>
+  </si>
+  <si>
+    <t>2. PHPで実行する</t>
+  </si>
+  <si>
+    <t>/basic/php_page.php{*}</t>
+  </si>
+  <si>
+    <t>/basic/php_page.php</t>
+  </si>
+  <si>
+    <t>3. プレビュー環境で動的に実行する</t>
+  </si>
+  <si>
+    <t>/basic/php_preview.html</t>
+  </si>
+  <si>
+    <t>機能</t>
+  </si>
+  <si>
+    <t>/funcs/</t>
+  </si>
+  <si>
+    <t>ルーティング</t>
+  </si>
+  <si>
+    <t>/funcs/route/index.php{*}</t>
+  </si>
+  <si>
+    <t>/funcs/route/index.php</t>
   </si>
   <si>
     <t>EndOfData</t>
@@ -634,7 +661,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -859,9 +886,7 @@
       <c r="K10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="L10" s="4"/>
       <c r="M10" s="4">
         <v>1</v>
       </c>
@@ -869,7 +894,9 @@
       <c r="O10" s="4"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
-      <c r="R10" s="4"/>
+      <c r="R10" s="4">
+        <v>1</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
@@ -877,10 +904,10 @@
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4"/>
@@ -888,7 +915,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4">
@@ -903,30 +930,152 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="14" spans="1:21" customHeight="1" ht="5">
-      <c r="A14" s="10" t="s">
+    <row r="12" spans="1:21">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
+      <c r="L12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="4">
+        <v>1</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+    </row>
+    <row r="18" spans="1:21" customHeight="1" ht="5">
+      <c r="A18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.8</t>
   </si>
@@ -23,7 +23,7 @@
     <t>「Paprika Framework 2」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2018-06-09 09:09:00</t>
+    <t>Exported: 2018-06-10 18:39:26</t>
   </si>
   <si>
     <t>ページID</t>
@@ -174,6 +174,15 @@
   </si>
   <si>
     <t>/funcs/route/index.php</t>
+  </si>
+  <si>
+    <t>フォーム</t>
+  </si>
+  <si>
+    <t>/funcs/form/index.php{*}</t>
+  </si>
+  <si>
+    <t>/funcs/form/index.php</t>
   </si>
   <si>
     <t>EndOfData</t>
@@ -661,7 +670,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -1052,30 +1061,61 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="18" spans="1:21" customHeight="1" ht="5">
-      <c r="A18" s="10" t="s">
+    <row r="16" spans="1:21">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+    </row>
+    <row r="19" spans="1:21" customHeight="1" ht="5">
+      <c r="A19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.8</t>
   </si>
@@ -23,7 +23,7 @@
     <t>「Paprika Framework 2」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2018-06-10 18:39:26</t>
+    <t>Exported: 2018-06-14 13:27:35</t>
   </si>
   <si>
     <t>ページID</t>
@@ -183,6 +183,24 @@
   </si>
   <si>
     <t>/funcs/form/index.php</t>
+  </si>
+  <si>
+    <t>Excellent DB</t>
+  </si>
+  <si>
+    <t>/funcs/exdb/index.php{*}</t>
+  </si>
+  <si>
+    <t>/funcs/exdb/index.php</t>
+  </si>
+  <si>
+    <t>Insert Test</t>
+  </si>
+  <si>
+    <t>/funcs/exdb/insert.php{*}</t>
+  </si>
+  <si>
+    <t>/funcs/exdb/insert.php</t>
   </si>
   <si>
     <t>EndOfData</t>
@@ -670,7 +688,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -686,22 +704,23 @@
     <col min="3" max="3" width="3" customWidth="true" style="0"/>
     <col min="4" max="4" width="3" customWidth="true" style="0"/>
     <col min="5" max="5" width="3" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
-    <col min="7" max="7" width="2" customWidth="true" style="0"/>
+    <col min="6" max="6" width="3" customWidth="true" style="0"/>
+    <col min="7" max="7" width="20" customWidth="true" style="0"/>
     <col min="8" max="8" width="2" customWidth="true" style="0"/>
     <col min="9" max="9" width="2" customWidth="true" style="0"/>
     <col min="10" max="10" width="2" customWidth="true" style="0"/>
-    <col min="11" max="11" width="40" customWidth="true" style="0"/>
-    <col min="12" max="12" width="20" customWidth="true" style="0"/>
-    <col min="13" max="13" width="3" customWidth="true" style="0"/>
-    <col min="14" max="14" width="9" customWidth="true" style="0"/>
+    <col min="11" max="11" width="2" customWidth="true" style="0"/>
+    <col min="12" max="12" width="40" customWidth="true" style="0"/>
+    <col min="13" max="13" width="20" customWidth="true" style="0"/>
+    <col min="14" max="14" width="3" customWidth="true" style="0"/>
+    <col min="15" max="15" width="9" customWidth="true" style="0"/>
+    <col min="18" max="18" width="30" customWidth="true" style="0"/>
     <col min="17" max="17" width="30" customWidth="true" style="0"/>
-    <col min="16" max="16" width="30" customWidth="true" style="0"/>
-    <col min="15" max="15" width="3" customWidth="true" style="0"/>
-    <col min="18" max="18" width="3" customWidth="true" style="0"/>
+    <col min="16" max="16" width="3" customWidth="true" style="0"/>
+    <col min="19" max="19" width="3" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" customHeight="1" ht="10">
+    <row r="1" spans="1:22" customHeight="1" ht="10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,18 +744,19 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V1" s="1"/>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -747,53 +767,54 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:22">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -804,53 +825,54 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="S8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="T8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="U8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="V8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:22">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
         <v>37</v>
@@ -859,27 +881,28 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
         <v>1</v>
       </c>
-      <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="9"/>
+      <c r="P9" s="4"/>
       <c r="Q9" s="9"/>
-      <c r="R9" s="4"/>
+      <c r="R9" s="9"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
@@ -888,29 +911,30 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
         <v>1</v>
       </c>
-      <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="9"/>
+      <c r="P10" s="4"/>
       <c r="Q10" s="9"/>
-      <c r="R10" s="4">
+      <c r="R10" s="9"/>
+      <c r="S10" s="4">
         <v>1</v>
       </c>
-      <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -919,27 +943,28 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
         <v>1</v>
       </c>
-      <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="9"/>
+      <c r="P11" s="4"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="4"/>
+      <c r="R11" s="9"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
@@ -948,29 +973,30 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>1</v>
       </c>
-      <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="9"/>
+      <c r="P12" s="4"/>
       <c r="Q12" s="9"/>
-      <c r="R12" s="4"/>
+      <c r="R12" s="9"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -979,27 +1005,28 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4">
         <v>1</v>
       </c>
-      <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="9"/>
+      <c r="P13" s="4"/>
       <c r="Q13" s="9"/>
-      <c r="R13" s="4"/>
+      <c r="R13" s="9"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="8" t="s">
@@ -1008,29 +1035,30 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4">
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
         <v>1</v>
       </c>
-      <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="9"/>
+      <c r="P14" s="4"/>
       <c r="Q14" s="9"/>
-      <c r="R14" s="4">
+      <c r="R14" s="9"/>
+      <c r="S14" s="4">
         <v>1</v>
       </c>
-      <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -1039,29 +1067,30 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <v>1</v>
       </c>
-      <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="9"/>
+      <c r="P15" s="4"/>
       <c r="Q15" s="9"/>
-      <c r="R15" s="4"/>
+      <c r="R15" s="9"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" s="4"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -1070,58 +1099,124 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>1</v>
       </c>
-      <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="9"/>
+      <c r="P16" s="4"/>
       <c r="Q16" s="9"/>
-      <c r="R16" s="4"/>
+      <c r="R16" s="9"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-    </row>
-    <row r="19" spans="1:21" customHeight="1" ht="5">
-      <c r="A19" s="10" t="s">
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="21" spans="1:22" customHeight="1" ht="5">
+      <c r="A21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.8</t>
   </si>
@@ -23,7 +23,7 @@
     <t>「Paprika Framework 2」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2018-06-14 13:27:35</t>
+    <t>Exported: 2018-09-14 16:45:16</t>
   </si>
   <si>
     <t>ページID</t>
@@ -165,15 +165,6 @@
   </si>
   <si>
     <t>/funcs/</t>
-  </si>
-  <si>
-    <t>ルーティング</t>
-  </si>
-  <si>
-    <t>/funcs/route/index.php{*}</t>
-  </si>
-  <si>
-    <t>/funcs/route/index.php</t>
   </si>
   <si>
     <t>フォーム</t>
@@ -688,7 +679,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -1126,10 +1117,10 @@
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="4"/>
@@ -1154,63 +1145,31 @@
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
     </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="4"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8" t="s">
+    <row r="20" spans="1:22" customHeight="1" ht="5">
+      <c r="A20" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N18" s="4">
-        <v>1</v>
-      </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-    </row>
-    <row r="21" spans="1:22" customHeight="1" ht="5">
-      <c r="A21" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/pickles2/px2-paprika/tests/testdata/standard/px-files/sitemaps/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6E6A65-80FF-B44D-94FD-34B3F3E83D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sitemap" sheetId="1" r:id="rId4"/>
+    <sheet name="sitemap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.8</t>
   </si>
@@ -159,39 +164,6 @@
   </si>
   <si>
     <t>/basic/php_preview.html</t>
-  </si>
-  <si>
-    <t>機能</t>
-  </si>
-  <si>
-    <t>/funcs/</t>
-  </si>
-  <si>
-    <t>フォーム</t>
-  </si>
-  <si>
-    <t>/funcs/form/index.php{*}</t>
-  </si>
-  <si>
-    <t>/funcs/form/index.php</t>
-  </si>
-  <si>
-    <t>Excellent DB</t>
-  </si>
-  <si>
-    <t>/funcs/exdb/index.php{*}</t>
-  </si>
-  <si>
-    <t>/funcs/exdb/index.php</t>
-  </si>
-  <si>
-    <t>Insert Test</t>
-  </si>
-  <si>
-    <t>/funcs/exdb/insert.php{*}</t>
-  </si>
-  <si>
-    <t>/funcs/exdb/insert.php</t>
   </si>
   <si>
     <t>EndOfData</t>
@@ -200,53 +172,42 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Kozuka Gothic Pr6N B"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -254,10 +215,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -273,19 +231,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFcccccc"/>
+        <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdddddd"/>
+        <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -299,13 +263,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -313,13 +278,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -327,13 +293,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF666666"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -341,51 +308,41 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -675,43 +632,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:V20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="true" style="0"/>
-    <col min="2" max="2" width="3" customWidth="true" style="0"/>
-    <col min="3" max="3" width="3" customWidth="true" style="0"/>
-    <col min="4" max="4" width="3" customWidth="true" style="0"/>
-    <col min="5" max="5" width="3" customWidth="true" style="0"/>
-    <col min="6" max="6" width="3" customWidth="true" style="0"/>
-    <col min="7" max="7" width="20" customWidth="true" style="0"/>
-    <col min="8" max="8" width="2" customWidth="true" style="0"/>
-    <col min="9" max="9" width="2" customWidth="true" style="0"/>
-    <col min="10" max="10" width="2" customWidth="true" style="0"/>
-    <col min="11" max="11" width="2" customWidth="true" style="0"/>
-    <col min="12" max="12" width="40" customWidth="true" style="0"/>
-    <col min="13" max="13" width="20" customWidth="true" style="0"/>
-    <col min="14" max="14" width="3" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9" customWidth="true" style="0"/>
-    <col min="18" max="18" width="30" customWidth="true" style="0"/>
-    <col min="17" max="17" width="30" customWidth="true" style="0"/>
-    <col min="16" max="16" width="3" customWidth="true" style="0"/>
-    <col min="19" max="19" width="3" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="6" width="3" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="11" width="2" customWidth="1"/>
+    <col min="12" max="12" width="40" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="3" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="3" customWidth="1"/>
+    <col min="17" max="18" width="30" customWidth="1"/>
+    <col min="19" max="19" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" customHeight="1" ht="10">
+    <row r="1" spans="1:22" ht="10" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +683,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" ht="38">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -751,14 +697,14 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
@@ -809,14 +755,14 @@
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1017,176 +963,40 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="8" t="s">
+    <row r="16" spans="1:22" ht="5" customHeight="1">
+      <c r="A16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4">
-        <v>1</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="4">
-        <v>1</v>
-      </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N15" s="4">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16" s="4">
-        <v>1</v>
-      </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="4"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N17" s="4">
-        <v>1</v>
-      </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-    </row>
-    <row r="20" spans="1:22" customHeight="1" ht="5">
-      <c r="A20" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="2">
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
@@ -1,34 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/pickles2/px2-paprika/tests/testdata/standard/px-files/sitemaps/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6E6A65-80FF-B44D-94FD-34B3F3E83D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="sitemap" sheetId="1" r:id="rId1"/>
+    <sheet name="sitemap" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.8</t>
-  </si>
-  <si>
-    <t>「Paprika Framework 2」 サイトマップ</t>
-  </si>
-  <si>
-    <t>Exported: 2018-09-14 16:45:16</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+  <si>
+    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.3.1</t>
+  </si>
+  <si>
+    <t>[Paprika Framework for Pickles 2] Sitemap</t>
+  </si>
+  <si>
+    <t>Exported: 2024-02-12 11:28:04</t>
   </si>
   <si>
     <t>ページID</t>
@@ -55,6 +50,9 @@
     <t>コンテンツファイルの格納先</t>
   </si>
   <si>
+    <t>論理構造上のパス</t>
+  </si>
+  <si>
     <t>一覧表示フラグ</t>
   </si>
   <si>
@@ -106,6 +104,9 @@
     <t>content</t>
   </si>
   <si>
+    <t>logical_path</t>
+  </si>
+  <si>
     <t>list_flg</t>
   </si>
   <si>
@@ -164,6 +165,18 @@
   </si>
   <si>
     <t>/basic/php_preview.html</t>
+  </si>
+  <si>
+    <t>ショーケース</t>
+  </si>
+  <si>
+    <t>/showcase/</t>
+  </si>
+  <si>
+    <t>PHPを拡張子で適用する</t>
+  </si>
+  <si>
+    <t>/showcase/extphp/</t>
   </si>
   <si>
     <t>EndOfData</t>
@@ -172,42 +185,53 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="メイリオ"/>
-      <charset val="128"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <charset val="128"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <charset val="128"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Kozuka Gothic Pr6N B"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -231,13 +255,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
+        <fgColor rgb="FFcccccc"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
+        <fgColor rgb="FFdddddd"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -270,7 +294,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -282,10 +306,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </left>
       <right style="thin">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -300,7 +324,7 @@
         <color rgb="FF666666"/>
       </left>
       <right style="thin">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -314,35 +338,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+  <cellXfs count="11">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -632,32 +645,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O34" sqref="O34"/>
+      <selection pane="bottomRight" activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="11" width="2" customWidth="1"/>
-    <col min="12" max="12" width="40" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="3" customWidth="1"/>
-    <col min="17" max="18" width="30" customWidth="1"/>
-    <col min="19" max="19" width="3" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="true" style="0"/>
+    <col min="2" max="2" width="3" customWidth="true" style="0"/>
+    <col min="3" max="3" width="3" customWidth="true" style="0"/>
+    <col min="4" max="4" width="3" customWidth="true" style="0"/>
+    <col min="5" max="5" width="3" customWidth="true" style="0"/>
+    <col min="6" max="6" width="20" customWidth="true" style="0"/>
+    <col min="7" max="7" width="2" customWidth="true" style="0"/>
+    <col min="8" max="8" width="2" customWidth="true" style="0"/>
+    <col min="9" max="9" width="2" customWidth="true" style="0"/>
+    <col min="10" max="10" width="2" customWidth="true" style="0"/>
+    <col min="11" max="11" width="40" customWidth="true" style="0"/>
+    <col min="12" max="12" width="20" customWidth="true" style="0"/>
+    <col min="14" max="14" width="3" customWidth="true" style="0"/>
+    <col min="15" max="15" width="9" customWidth="true" style="0"/>
+    <col min="16" max="16" width="3" customWidth="true" style="0"/>
+    <col min="17" max="17" width="30" customWidth="true" style="0"/>
+    <col min="18" max="18" width="30" customWidth="true" style="0"/>
+    <col min="19" max="19" width="3" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="10" customHeight="1">
+    <row r="1" spans="1:22" customHeight="1" ht="10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +706,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="38">
+    <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -697,135 +720,139 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="H7" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="H8" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="K9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4">
         <v>1</v>
@@ -843,19 +870,19 @@
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="K10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4">
         <v>1</v>
@@ -876,18 +903,18 @@
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="K11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4">
         <v>1</v>
@@ -906,21 +933,21 @@
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="L12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="M12" s="4"/>
       <c r="N12" s="4">
         <v>1</v>
       </c>
@@ -938,18 +965,18 @@
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="K13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4">
         <v>1</v>
@@ -963,40 +990,112 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
     </row>
-    <row r="16" spans="1:22" ht="5" customHeight="1">
-      <c r="A16" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
+    <row r="14" spans="1:22">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="4">
+        <v>1</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="4">
+        <v>1</v>
+      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+    </row>
+    <row r="18" spans="1:22" customHeight="1" ht="5">
+      <c r="A18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="2">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
+  <mergeCells>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>